--- a/MyCProgram/近期工作/CCTV/出差/员工出差申请表-样表 - CCTV.xlsx
+++ b/MyCProgram/近期工作/CCTV/出差/员工出差申请表-样表 - CCTV.xlsx
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -239,27 +239,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -602,13 +589,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -659,6 +643,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -683,18 +739,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -707,73 +751,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1078,8 +1058,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:M5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1096,51 +1076,51 @@
     <col min="12" max="12" width="2.375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="2.625" customWidth="1"/>
     <col min="14" max="14" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="17.625" customWidth="1"/>
+    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="2:15" ht="28.5" customHeight="1">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="2:15" s="8" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
@@ -1152,32 +1132,32 @@
         <v>27</v>
       </c>
       <c r="O3" s="10">
-        <v>20090205</v>
+        <v>20170305</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1186,22 +1166,22 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B5" s="22"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1210,26 +1190,26 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B6" s="22"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1238,42 +1218,42 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="25.5" customHeight="1">
-      <c r="B7" s="22"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="O7" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="25.5" customHeight="1">
-      <c r="B8" s="22"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1282,22 +1262,22 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="32.25" customHeight="1">
-      <c r="B9" s="23"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="37" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="4" t="s">
         <v>28</v>
       </c>
@@ -1306,259 +1286,261 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="41" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="48"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
     </row>
     <row r="11" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="41" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="48"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="6"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="29"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="43"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="6"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="29"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="31"/>
     </row>
     <row r="14" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B14" s="20"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="6"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="29"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="2:15" ht="52.5" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="26" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="29"/>
+      <c r="O15" s="31"/>
     </row>
     <row r="16" spans="2:15" ht="23.25" customHeight="1">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="40"/>
+      <c r="O16" s="34"/>
     </row>
     <row r="17" spans="2:15" ht="43.5" customHeight="1">
-      <c r="B17" s="24"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="26">
+      <c r="B17" s="48"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="19">
         <v>1</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26" t="s">
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="29"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="2:15" ht="43.5" customHeight="1">
-      <c r="B18" s="24"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="26">
+      <c r="B18" s="48"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="19">
         <v>2</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="29"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="31"/>
     </row>
     <row r="19" spans="2:15" ht="43.5" customHeight="1">
-      <c r="B19" s="24"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="26">
+      <c r="B19" s="48"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="19">
         <v>3</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="29"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="31"/>
     </row>
     <row r="20" spans="2:15" ht="43.5" customHeight="1">
-      <c r="B20" s="24"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="27">
+      <c r="B20" s="48"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="33">
         <v>4</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="29"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="31"/>
     </row>
     <row r="21" spans="2:15" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B21" s="25"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="36"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="E11:O11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:M6"/>
+  <mergeCells count="47">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:M8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C21:O21"/>
     <mergeCell ref="E9:M9"/>
     <mergeCell ref="N15:O15"/>
@@ -1575,22 +1557,21 @@
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:O10"/>
-    <mergeCell ref="B1:O2"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:M8"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.22" right="0.3" top="1" bottom="1" header="0.5" footer="0.5"/>
